--- a/results/df-four-scores.xlsx
+++ b/results/df-four-scores.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>ML3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>ML1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>ML4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>ML2</t>
         </is>
       </c>
     </row>
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3301026324782411</v>
+        <v>0.7024974479537011</v>
       </c>
       <c r="C2">
-        <v>0.6011028806334483</v>
+        <v>0.9617149287398467</v>
       </c>
       <c r="D2">
-        <v>0.4301594088733358</v>
+        <v>0.2421066633242847</v>
       </c>
       <c r="E2">
-        <v>0.6498169611969592</v>
+        <v>0.08956578771630037</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2023686208553027</v>
+        <v>0.4380324187370142</v>
       </c>
       <c r="C3">
-        <v>0.2777357682949861</v>
+        <v>0.4449251533933707</v>
       </c>
       <c r="D3">
-        <v>0.3322684967206326</v>
+        <v>0.1953102390897842</v>
       </c>
       <c r="E3">
-        <v>0.5996713172868109</v>
+        <v>0.1401042521876995</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3745132704338859</v>
+        <v>0.7083498425436027</v>
       </c>
       <c r="C4">
-        <v>0.6519004068346094</v>
+        <v>0.9275834185088152</v>
       </c>
       <c r="D4">
-        <v>0.4579437249363378</v>
+        <v>0.2864212843622933</v>
       </c>
       <c r="E4">
-        <v>0.7650362669863743</v>
+        <v>0.1829445885849366</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5071797222520986</v>
       </c>
       <c r="C5">
-        <v>0.03179103204839025</v>
+        <v>0.01066961593624452</v>
       </c>
       <c r="D5">
-        <v>0.3635339227366345</v>
+        <v>0.1467396642164856</v>
       </c>
       <c r="E5">
-        <v>0.8450433456689586</v>
+        <v>0.2159359059279223</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.171164950739965</v>
+        <v>0.5470284610680847</v>
       </c>
       <c r="C6">
-        <v>0.23385009651925</v>
+        <v>0.5788512355257476</v>
       </c>
       <c r="D6">
-        <v>0.4104450956588311</v>
+        <v>0.2459213097564157</v>
       </c>
       <c r="E6">
-        <v>0.6323821960073675</v>
+        <v>0.3918882284320747</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.05283777878988627</v>
+        <v>0.5226565406421679</v>
       </c>
       <c r="C7">
-        <v>0.1000038869768483</v>
+        <v>0.9532771500235164</v>
       </c>
       <c r="D7">
-        <v>0.3018868268455396</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0548652792203839</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.2261475967129348</v>
+        <v>0.7975089200143064</v>
       </c>
       <c r="C8">
-        <v>0.6088815393195453</v>
+        <v>0.9441812385609787</v>
       </c>
       <c r="D8">
-        <v>0.4949832013086082</v>
+        <v>0.1007168560151636</v>
       </c>
       <c r="E8">
-        <v>0.5560220174960099</v>
+        <v>0.06721880506175314</v>
       </c>
     </row>
     <row r="9">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.03386179997977935</v>
+        <v>0.5679599137357974</v>
       </c>
       <c r="C9">
-        <v>0.1107349983824677</v>
+        <v>0.627378667490726</v>
       </c>
       <c r="D9">
-        <v>0.5163633588361585</v>
+        <v>0.1110038359160378</v>
       </c>
       <c r="E9">
-        <v>0.7140026564830567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.289182512910864</v>
+        <v>0.887533573695541</v>
       </c>
       <c r="C10">
-        <v>0.6818255349856556</v>
+        <v>0.9622535693458847</v>
       </c>
       <c r="D10">
-        <v>0.5903346370146425</v>
+        <v>0.1416151726489518</v>
       </c>
       <c r="E10">
-        <v>0.3599127492239455</v>
+        <v>0.1615490237008306</v>
       </c>
     </row>
     <row r="11">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.8562516591020831</v>
+        <v>0.7611420433948266</v>
       </c>
       <c r="C11">
-        <v>0.24845764104367</v>
+        <v>0.9241133206438176</v>
       </c>
       <c r="D11">
-        <v>0.6386042567360687</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.764941524208031</v>
+        <v>0.1415428655083422</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.2056692847191466</v>
+        <v>0.4449376503012907</v>
       </c>
       <c r="C12">
-        <v>0.4384933306689822</v>
+        <v>0.893039324509623</v>
       </c>
       <c r="D12">
-        <v>0.2141635315047961</v>
+        <v>0.09360032152317015</v>
       </c>
       <c r="E12">
-        <v>0.4254404654110284</v>
+        <v>0.04007628670482418</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.3883821749011942</v>
+        <v>0.7406456979189311</v>
       </c>
       <c r="C13">
-        <v>0.452326508622745</v>
+        <v>0.8927569944416186</v>
       </c>
       <c r="D13">
-        <v>0.4887501316244985</v>
+        <v>0.2539969222170652</v>
       </c>
       <c r="E13">
-        <v>0.4867584891838891</v>
+        <v>0.131042867075585</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.2978960509025257</v>
+        <v>0.9539108361645862</v>
       </c>
       <c r="C14">
-        <v>0.9456322417326022</v>
+        <v>0.9811629882820118</v>
       </c>
       <c r="D14">
-        <v>0.4975580771901655</v>
+        <v>0.08770802404751724</v>
       </c>
       <c r="E14">
-        <v>0.4030218862189334</v>
+        <v>0.03413917265265048</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.01011410332953179</v>
+        <v>0.4702420873216543</v>
       </c>
       <c r="C15">
-        <v>0.08131038598568167</v>
+        <v>0.1064918880968133</v>
       </c>
       <c r="D15">
-        <v>0.2920887362425406</v>
+        <v>0.1440430247782729</v>
       </c>
       <c r="E15">
-        <v>0.8619539234444267</v>
+        <v>0.06618959109145901</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.1728062469694915</v>
+        <v>0.5697501407067103</v>
       </c>
       <c r="C16">
-        <v>0.1953971575719869</v>
+        <v>0.7916708535445224</v>
       </c>
       <c r="D16">
-        <v>0.5737804577256376</v>
+        <v>0.2532019833502887</v>
       </c>
       <c r="E16">
-        <v>0.7949831727565437</v>
+        <v>0.4578792309159927</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.3674435410126524</v>
+        <v>0.7601045795857193</v>
       </c>
       <c r="C17">
-        <v>0.3404960364434364</v>
+        <v>0.9082999877589411</v>
       </c>
       <c r="D17">
-        <v>0.6345579063202654</v>
+        <v>0.3645552567075457</v>
       </c>
       <c r="E17">
-        <v>0.6808636481627547</v>
+        <v>0.4084915881521348</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.8196179283043439</v>
       </c>
       <c r="C18">
-        <v>0.4476549628751105</v>
+        <v>0.9404104685040327</v>
       </c>
       <c r="D18">
-        <v>0.4645593470500635</v>
+        <v>0.8155339567029301</v>
       </c>
       <c r="E18">
-        <v>0.7031139675738407</v>
+        <v>0.1354777754659318</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.2314014398510715</v>
+        <v>0.7882664919803915</v>
       </c>
       <c r="C19">
-        <v>0.5689011374449776</v>
+        <v>0.8433731967924895</v>
       </c>
       <c r="D19">
-        <v>0.5625172962397955</v>
+        <v>0.1449864067929873</v>
       </c>
       <c r="E19">
-        <v>0.6326975262493664</v>
+        <v>0.3679676431835934</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.2591072608303278</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1408369038213745</v>
+        <v>0.9254834961463976</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.1937623900175984</v>
       </c>
       <c r="E20">
-        <v>0.7410425772463075</v>
+        <v>0.1476664681754715</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.01603324335212698</v>
+        <v>0.5171015223772517</v>
       </c>
       <c r="C21">
-        <v>0.07263120562842093</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3639701249673358</v>
+        <v>0.1485222242239442</v>
       </c>
       <c r="E21">
-        <v>0.848403666487265</v>
+        <v>0.07942309328473811</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.236350836990546</v>
+        <v>0.8483845555306491</v>
       </c>
       <c r="C22">
-        <v>0.845226369996683</v>
+        <v>0.8209304924840434</v>
       </c>
       <c r="D22">
-        <v>0.548991514508833</v>
+        <v>0.2126847859897857</v>
       </c>
       <c r="E22">
-        <v>0.8232197142223527</v>
+        <v>0.0049827261400089</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.2807890639432907</v>
+        <v>0.7789286365485432</v>
       </c>
       <c r="C23">
-        <v>0.4252360939430628</v>
+        <v>0.7665376235029972</v>
       </c>
       <c r="D23">
-        <v>0.5885175665296136</v>
+        <v>0.2473977387896559</v>
       </c>
       <c r="E23">
-        <v>0.6600094018958611</v>
+        <v>0.3985842260930366</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.6759842426180606</v>
+        <v>0.8004173422984378</v>
       </c>
       <c r="C24">
-        <v>0.4067532560039821</v>
+        <v>0.9411960117001055</v>
       </c>
       <c r="D24">
-        <v>0.5563790460046527</v>
+        <v>0.5760377486148305</v>
       </c>
       <c r="E24">
-        <v>0.6376612158801445</v>
+        <v>0.2628785901249486</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.1556270398347348</v>
+        <v>0.6463298890658563</v>
       </c>
       <c r="C25">
-        <v>0.1315775084201037</v>
+        <v>0.6418634433060165</v>
       </c>
       <c r="D25">
-        <v>0.6331463548921003</v>
+        <v>0.2421220873644614</v>
       </c>
       <c r="E25">
-        <v>0.7636286451485556</v>
+        <v>0.7216153697042026</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.203904772412834</v>
+        <v>0.7800668166523466</v>
       </c>
       <c r="C26">
-        <v>0.3238133361257333</v>
+        <v>0.8931583348326971</v>
       </c>
       <c r="D26">
-        <v>0.7835417286375226</v>
+        <v>0.1664918407444261</v>
       </c>
       <c r="E26">
-        <v>0.6108187337819763</v>
+        <v>0.6908375231193936</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.2660281701285499</v>
+        <v>0.6536732606173207</v>
       </c>
       <c r="C27">
-        <v>0.299059373145779</v>
+        <v>0.9569605546940042</v>
       </c>
       <c r="D27">
-        <v>0.5040227708054446</v>
+        <v>0.1839316742993877</v>
       </c>
       <c r="E27">
-        <v>0.8481278820300008</v>
+        <v>0.1004508245056361</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.1534340972302506</v>
+        <v>0.3362214345367779</v>
       </c>
       <c r="C28">
-        <v>0.01031635394423281</v>
+        <v>0.7102751499704355</v>
       </c>
       <c r="D28">
-        <v>0.3036556630080568</v>
+        <v>0.1874413504476867</v>
       </c>
       <c r="E28">
-        <v>0.8038365954171426</v>
+        <v>0.5927489774187021</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.4024256920663447</v>
+        <v>0.7359954685447284</v>
       </c>
       <c r="C29">
-        <v>0.4916660398871648</v>
+        <v>0.9054842848221797</v>
       </c>
       <c r="D29">
-        <v>0.3954592929816316</v>
+        <v>0.2517875689269201</v>
       </c>
       <c r="E29">
-        <v>0.4028928122784831</v>
+        <v>0.09133933035368828</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.1767531920959871</v>
+        <v>0.2178838629506577</v>
       </c>
       <c r="C30">
-        <v>0.03211143535795882</v>
+        <v>0.7989229786138886</v>
       </c>
       <c r="D30">
-        <v>0.2337211273088025</v>
+        <v>0.1729803776958478</v>
       </c>
       <c r="E30">
-        <v>0.7489953248028083</v>
+        <v>0.3611162788290023</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.7245817323867252</v>
+        <v>0.7849863766213546</v>
       </c>
       <c r="C31">
-        <v>0.458953180404373</v>
+        <v>0.961538449365923</v>
       </c>
       <c r="D31">
-        <v>0.5748275278240957</v>
+        <v>0.5196703643955527</v>
       </c>
       <c r="E31">
-        <v>0.8828097229365592</v>
+        <v>0.05897880098726113</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.129571638972332</v>
+        <v>0.3093806850808903</v>
       </c>
       <c r="C32">
-        <v>0.08299944111439274</v>
+        <v>0.5124043671641231</v>
       </c>
       <c r="D32">
-        <v>0.1909002432564171</v>
+        <v>0.1835383868074372</v>
       </c>
       <c r="E32">
-        <v>0.7701374064971955</v>
+        <v>0.1596689159153606</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.1249605736198036</v>
+        <v>0.6134449196964198</v>
       </c>
       <c r="C33">
-        <v>0.2101193970524475</v>
+        <v>0.7943222618258725</v>
       </c>
       <c r="D33">
-        <v>0.495718222668913</v>
+        <v>0.1010327212586594</v>
       </c>
       <c r="E33">
-        <v>0.3961354014248406</v>
+        <v>0.2554201883949887</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.1959336838489023</v>
+        <v>0.2871204672375908</v>
       </c>
       <c r="C34">
-        <v>0.2386276274188597</v>
+        <v>0.902072253393146</v>
       </c>
       <c r="D34">
-        <v>0.1135537857343022</v>
+        <v>0.230188538532477</v>
       </c>
       <c r="E34">
-        <v>0.6867386951410494</v>
+        <v>0.04196241288684733</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.08642884028875079</v>
+        <v>0.2556374009566448</v>
       </c>
       <c r="C35">
-        <v>0.02048330573016863</v>
+        <v>0.3584303541910978</v>
       </c>
       <c r="D35">
-        <v>0.1671338817164624</v>
+        <v>0.1629586743319662</v>
       </c>
       <c r="E35">
-        <v>0.7966155527326994</v>
+        <v>0.07558542142020618</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.3254855998302122</v>
+        <v>0.660445627656624</v>
       </c>
       <c r="C36">
-        <v>0.3428113399695774</v>
+        <v>0.8487200127420685</v>
       </c>
       <c r="D36">
-        <v>0.5227349997298579</v>
+        <v>0.3429435107141538</v>
       </c>
       <c r="E36">
-        <v>0.7253743886134558</v>
+        <v>0.2703385491499261</v>
       </c>
     </row>
     <row r="37">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.1718761871179025</v>
+        <v>0.6508023451130059</v>
       </c>
       <c r="C37">
-        <v>0.1189948967720449</v>
+        <v>0.5975178076004755</v>
       </c>
       <c r="D37">
-        <v>0.6220269171149764</v>
+        <v>0.2318812730460454</v>
       </c>
       <c r="E37">
-        <v>0.732218403546221</v>
+        <v>0.5798152488482185</v>
       </c>
     </row>
     <row r="38">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.4331580224487923</v>
+        <v>0.8380132988592081</v>
       </c>
       <c r="C38">
-        <v>0.3381139729738223</v>
+        <v>0.9152036470050949</v>
       </c>
       <c r="D38">
-        <v>0.8103533309948563</v>
+        <v>0.3666544830133555</v>
       </c>
       <c r="E38">
-        <v>0.6798295423703931</v>
+        <v>0.4182077901584604</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.3881353666333209</v>
+        <v>0.7761293680437859</v>
       </c>
       <c r="C39">
-        <v>0.5244775180511403</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0.4652198706826153</v>
+        <v>0.1458008014385984</v>
       </c>
       <c r="E39">
-        <v>0.3384668832453257</v>
+        <v>0.006751663828755001</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.6165499290029342</v>
+        <v>0.8378106217515325</v>
       </c>
       <c r="C40">
-        <v>0.5917838434988236</v>
+        <v>0.9593779994140715</v>
       </c>
       <c r="D40">
-        <v>0.4970250097716574</v>
+        <v>0.4332617364035518</v>
       </c>
       <c r="E40">
-        <v>0.6706723250313723</v>
+        <v>0.06559629949703084</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.3598851123399027</v>
+        <v>0.8521091965984577</v>
       </c>
       <c r="C41">
-        <v>0.5700397517257323</v>
+        <v>0.9587150530386529</v>
       </c>
       <c r="D41">
-        <v>0.5764102687575259</v>
+        <v>0.1243601720600576</v>
       </c>
       <c r="E41">
-        <v>0.1449859048012774</v>
+        <v>0.09347094915974585</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.2094332747614254</v>
+        <v>0.09338178672310893</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.8340400732695641</v>
       </c>
       <c r="D42">
-        <v>0.160086804495707</v>
+        <v>0.1678566214662831</v>
       </c>
       <c r="E42">
-        <v>0.7666640496759322</v>
+        <v>0.07644640261683318</v>
       </c>
     </row>
     <row r="43">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.2278261630942707</v>
+        <v>0.869512621106815</v>
       </c>
       <c r="C43">
-        <v>0.7621153455433927</v>
+        <v>0.9257490105707653</v>
       </c>
       <c r="D43">
-        <v>0.5673158536285688</v>
+        <v>0.05591116149762849</v>
       </c>
       <c r="E43">
-        <v>0.4951880653990571</v>
+        <v>0.1166586147885751</v>
       </c>
     </row>
     <row r="44">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.1872962744664455</v>
+        <v>0.8881904541598901</v>
       </c>
       <c r="C44">
-        <v>0.8203105905524946</v>
+        <v>0.8105113999268133</v>
       </c>
       <c r="D44">
-        <v>0.6066547968931867</v>
+        <v>0.1312205511410782</v>
       </c>
       <c r="E44">
-        <v>0.7721110755853329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.1001986224450368</v>
+        <v>0.629470921472276</v>
       </c>
       <c r="C45">
-        <v>0.8286406110356639</v>
+        <v>0.6669839797958947</v>
       </c>
       <c r="D45">
-        <v>0.2138877326135669</v>
+        <v>0.07130595614905093</v>
       </c>
       <c r="E45">
-        <v>0.7940009466759583</v>
+        <v>0.1294921896625122</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.07583478533531694</v>
+        <v>0.6790945126541589</v>
       </c>
       <c r="C46">
-        <v>0.4932814281612489</v>
+        <v>0.3593822840516951</v>
       </c>
       <c r="D46">
-        <v>0.3787489688518938</v>
+        <v>0.1099168391949723</v>
       </c>
       <c r="E46">
-        <v>0.7359843329707245</v>
+        <v>0.07739684105782292</v>
       </c>
     </row>
     <row r="47">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.2200003447285272</v>
+        <v>0.8270437047185387</v>
       </c>
       <c r="C47">
-        <v>0.6883821505657728</v>
+        <v>0.9565834664588059</v>
       </c>
       <c r="D47">
-        <v>0.5289738220817494</v>
+        <v>0.1199386531202731</v>
       </c>
       <c r="E47">
-        <v>0.6518040846426849</v>
+        <v>0.2467589299839745</v>
       </c>
     </row>
     <row r="48">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.2585281817553575</v>
+        <v>0.5885960654767798</v>
       </c>
       <c r="C48">
-        <v>0.5631577185411767</v>
+        <v>0.9704124193268644</v>
       </c>
       <c r="D48">
-        <v>0.306283501082446</v>
+        <v>0.1242089489609089</v>
       </c>
       <c r="E48">
-        <v>0.4874167991773501</v>
+        <v>0.07405519316482141</v>
       </c>
     </row>
     <row r="49">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.1556867310881036</v>
+        <v>0.7313217885819372</v>
       </c>
       <c r="C49">
-        <v>0.2790936058521271</v>
+        <v>0.5670639072975273</v>
       </c>
       <c r="D49">
-        <v>0.6403103824621902</v>
+        <v>0.2037481373216336</v>
       </c>
       <c r="E49">
-        <v>0.7284510077444392</v>
+        <v>0.2850889342416531</v>
       </c>
     </row>
     <row r="50">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.1410208475522975</v>
+        <v>0.5898905224618652</v>
       </c>
       <c r="C50">
-        <v>0.08842758321577901</v>
+        <v>0.8740972398771859</v>
       </c>
       <c r="D50">
-        <v>0.5482938101257687</v>
+        <v>0.1484523007978118</v>
       </c>
       <c r="E50">
-        <v>0.4294895401028141</v>
+        <v>0.4491344797146646</v>
       </c>
     </row>
     <row r="51">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.1279151208738922</v>
+        <v>0.5561781863578766</v>
       </c>
       <c r="C51">
-        <v>0.09039953928669239</v>
+        <v>0.5937725513646488</v>
       </c>
       <c r="D51">
-        <v>0.4680124494706774</v>
+        <v>0.1607381620119033</v>
       </c>
       <c r="E51">
-        <v>0.9273977410762925</v>
+        <v>0.6075629220873693</v>
       </c>
     </row>
     <row r="52">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.2653049105720428</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0.9756141536965117</v>
       </c>
       <c r="D52">
-        <v>0.6301038663154741</v>
+        <v>0.1102702329154151</v>
       </c>
       <c r="E52">
-        <v>0.6204110932783936</v>
+        <v>0.06221165818250909</v>
       </c>
     </row>
     <row r="53">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.2944621095291136</v>
+        <v>0.7631223202472487</v>
       </c>
       <c r="C53">
-        <v>0.6449819697982618</v>
+        <v>0.9870415261866885</v>
       </c>
       <c r="D53">
-        <v>0.4406566212803352</v>
+        <v>0.1045143672116179</v>
       </c>
       <c r="E53">
-        <v>0.448332055209423</v>
+        <v>0.01458398623388672</v>
       </c>
     </row>
     <row r="54">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.09900488846680774</v>
+        <v>0.5317865734741091</v>
       </c>
       <c r="C54">
-        <v>0.1411672103221323</v>
+        <v>0.7738346255953081</v>
       </c>
       <c r="D54">
-        <v>0.3376407884933096</v>
+        <v>0.09500359918388422</v>
       </c>
       <c r="E54">
-        <v>0.3543761523521577</v>
+        <v>0.03555756496364224</v>
       </c>
     </row>
     <row r="55">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.7544005130978924</v>
+        <v>0.6805415605080568</v>
       </c>
       <c r="C55">
-        <v>0.4391623005247469</v>
+        <v>0.895267728839161</v>
       </c>
       <c r="D55">
-        <v>0.3703606312810996</v>
+        <v>0.5443862259434752</v>
       </c>
       <c r="E55">
-        <v>0.7010233036191562</v>
+        <v>0.09854892878944123</v>
       </c>
     </row>
     <row r="56">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.06386010662272974</v>
+        <v>0.5523786083203375</v>
       </c>
       <c r="C56">
-        <v>0.1698109144396542</v>
+        <v>0.1974893290797908</v>
       </c>
       <c r="D56">
-        <v>0.37096260613713</v>
+        <v>0.1742176510935038</v>
       </c>
       <c r="E56">
-        <v>0.876986269368341</v>
+        <v>0.1457959263119675</v>
       </c>
     </row>
     <row r="57">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.2290355751787571</v>
+        <v>0.2725859452414159</v>
       </c>
       <c r="C57">
-        <v>0.1169103652550007</v>
+        <v>0.7577910401190755</v>
       </c>
       <c r="D57">
-        <v>0.1737744901816815</v>
+        <v>0.232188613050515</v>
       </c>
       <c r="E57">
-        <v>0.6555991535643234</v>
+        <v>0.09251354575813461</v>
       </c>
     </row>
     <row r="58">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.7762877474018501</v>
+        <v>0.7697045589513243</v>
       </c>
       <c r="C58">
-        <v>0.2601937659311886</v>
+        <v>0.9363487091225382</v>
       </c>
       <c r="D58">
-        <v>0.6655929546771441</v>
+        <v>0.8443201112256951</v>
       </c>
       <c r="E58">
-        <v>0.7577996140419968</v>
+        <v>0.2030465533832319</v>
       </c>
     </row>
     <row r="59">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.3353520553007144</v>
+        <v>0.8602561534494041</v>
       </c>
       <c r="C59">
-        <v>0.2003848125313096</v>
+        <v>0.896986813656154</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0.3788464530803425</v>
       </c>
       <c r="E59">
-        <v>0.7293480020193751</v>
+        <v>0.4952303603326453</v>
       </c>
     </row>
     <row r="60">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.0842109851340964</v>
+        <v>0.5769874863229939</v>
       </c>
       <c r="C60">
-        <v>0.3356277724281652</v>
+        <v>0.6941544200500913</v>
       </c>
       <c r="D60">
-        <v>0.461844976699692</v>
+        <v>0.09227723771216885</v>
       </c>
       <c r="E60">
-        <v>0.802676134049089</v>
+        <v>0.6503748993168169</v>
       </c>
     </row>
     <row r="61">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.4448391708457908</v>
+        <v>0.8348418926394234</v>
       </c>
       <c r="C61">
-        <v>0.6642449594055807</v>
+        <v>0.9732556301883671</v>
       </c>
       <c r="D61">
-        <v>0.5256270198400019</v>
+        <v>0.2735342628245416</v>
       </c>
       <c r="E61">
-        <v>0.6466505700697275</v>
+        <v>0.0671960839291391</v>
       </c>
     </row>
     <row r="62">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.0985131913320273</v>
+        <v>0.5823689256081314</v>
       </c>
       <c r="C62">
-        <v>0.1012977305329977</v>
+        <v>0.4518982108767606</v>
       </c>
       <c r="D62">
-        <v>0.5334797745990463</v>
+        <v>0.1788950097857715</v>
       </c>
       <c r="E62">
-        <v>0.7674844999048458</v>
+        <v>0.5041651111655402</v>
       </c>
     </row>
     <row r="63">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.1462564355275004</v>
+        <v>0.589689573495269</v>
       </c>
       <c r="C63">
-        <v>0.1504392445985553</v>
+        <v>0.6635273381112689</v>
       </c>
       <c r="D63">
-        <v>0.5113547285254125</v>
+        <v>0.2009022759548472</v>
       </c>
       <c r="E63">
-        <v>0.6542905889687367</v>
+        <v>0.4779169605616789</v>
       </c>
     </row>
     <row r="64">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.3142369401344713</v>
+        <v>0.7713045519017463</v>
       </c>
       <c r="C64">
-        <v>0.5794893348065207</v>
+        <v>0.9066294922850977</v>
       </c>
       <c r="D64">
-        <v>0.5053245786536613</v>
+        <v>0.25667081220703</v>
       </c>
       <c r="E64">
-        <v>0.8554937156250626</v>
+        <v>0.1568292039287303</v>
       </c>
     </row>
     <row r="65">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.3244295138295088</v>
+        <v>0.6039297471140713</v>
       </c>
       <c r="C65">
-        <v>0.1608483030977287</v>
+        <v>0.7141751313788597</v>
       </c>
       <c r="D65">
-        <v>0.5045726125466946</v>
+        <v>0.3658964231690922</v>
       </c>
       <c r="E65">
-        <v>0.7909793974115469</v>
+        <v>0.2084395037075704</v>
       </c>
     </row>
     <row r="66">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.2982105918733531</v>
+        <v>0.8259636837526148</v>
       </c>
       <c r="C66">
-        <v>0.5881455217554527</v>
+        <v>0.9782138508098254</v>
       </c>
       <c r="D66">
-        <v>0.5475427514091246</v>
+        <v>0.1441578979126931</v>
       </c>
       <c r="E66">
-        <v>0.5150633651627199</v>
+        <v>0.06480570236740346</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.1491204970382798</v>
+        <v>0.2842519832801393</v>
       </c>
       <c r="C67">
-        <v>0.02266967607619866</v>
+        <v>0.4334359534130907</v>
       </c>
       <c r="D67">
-        <v>0.1846245919626451</v>
+        <v>0.2631779644608362</v>
       </c>
       <c r="E67">
-        <v>0.7977224694206493</v>
+        <v>0.06477322370414984</v>
       </c>
     </row>
     <row r="68">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.09667117257432058</v>
+        <v>0.5157785051803367</v>
       </c>
       <c r="C68">
-        <v>0.07516207480259018</v>
+        <v>0.6557860097819196</v>
       </c>
       <c r="D68">
-        <v>0.4690974724871225</v>
+        <v>0.1528900326304085</v>
       </c>
       <c r="E68">
-        <v>0.9354962247066204</v>
+        <v>0.559907732283814</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.4077225216752498</v>
+        <v>0.8087161004268731</v>
       </c>
       <c r="C69">
-        <v>0.5880589127294953</v>
+        <v>0.9624219153538036</v>
       </c>
       <c r="D69">
-        <v>0.4718612451895826</v>
+        <v>0.2562568836196096</v>
       </c>
       <c r="E69">
-        <v>0.3620612216338534</v>
+        <v>0.08833122470196306</v>
       </c>
     </row>
     <row r="70">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.1050588396917773</v>
+        <v>0.6310097669860751</v>
       </c>
       <c r="C70">
-        <v>0.5296662931098189</v>
+        <v>0.3737201837232693</v>
       </c>
       <c r="D70">
-        <v>0.3094965426914523</v>
+        <v>0.1027201075759455</v>
       </c>
       <c r="E70">
-        <v>0.6600848129453821</v>
+        <v>0.2101735930164715</v>
       </c>
     </row>
     <row r="71">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.1880200836596494</v>
+        <v>0.5047884333945129</v>
       </c>
       <c r="C71">
-        <v>0.2862844655105316</v>
+        <v>0.9545158701935999</v>
       </c>
       <c r="D71">
-        <v>0.3121605258723844</v>
+        <v>0.157052969542045</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0.3749350732838275</v>
       </c>
     </row>
     <row r="72">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.1272200659555243</v>
+        <v>0.3253303262909799</v>
       </c>
       <c r="C72">
-        <v>0.1584415216208676</v>
+        <v>0.9852541673893482</v>
       </c>
       <c r="D72">
-        <v>0.2077332483630588</v>
+        <v>0.1702274133080117</v>
       </c>
       <c r="E72">
-        <v>0.9329828431045194</v>
+        <v>0.01333415106821483</v>
       </c>
     </row>
     <row r="73">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.2705078343189306</v>
+        <v>0.803872816532372</v>
       </c>
       <c r="C73">
-        <v>0.6463860990018575</v>
+        <v>0.9053872275200109</v>
       </c>
       <c r="D73">
-        <v>0.4831055817020484</v>
+        <v>0.1174959810542748</v>
       </c>
       <c r="E73">
-        <v>0.5321740373612333</v>
+        <v>0.2070927934696392</v>
       </c>
     </row>
     <row r="74">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.2759124078414481</v>
+        <v>0.7761946338764526</v>
       </c>
       <c r="C74">
-        <v>0.6091250340679029</v>
+        <v>0.8327557174007194</v>
       </c>
       <c r="D74">
-        <v>0.4408182529293304</v>
+        <v>0.1473185398077266</v>
       </c>
       <c r="E74">
-        <v>0.483665868674321</v>
+        <v>0.1696169052914255</v>
       </c>
     </row>
   </sheetData>
